--- a/final_data_pipeline/output/311615longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311615longform_elec_options_nowhp.xlsx
@@ -651,7 +651,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -698,7 +698,7 @@
         <v>64</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -745,7 +745,7 @@
         <v>64</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -1074,7 +1074,7 @@
         <v>64</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1121,7 +1121,7 @@
         <v>64</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1168,7 +1168,7 @@
         <v>64</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1262,7 +1262,7 @@
         <v>64</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1356,7 +1356,7 @@
         <v>64</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1403,7 +1403,7 @@
         <v>64</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1450,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1497,7 +1497,7 @@
         <v>64</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1544,7 +1544,7 @@
         <v>64</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1638,7 +1638,7 @@
         <v>64</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1920,7 +1920,7 @@
         <v>64</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -2014,7 +2014,7 @@
         <v>64</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2061,7 +2061,7 @@
         <v>65</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2076,10 +2076,10 @@
         <v>28.03121167607779</v>
       </c>
       <c r="N32">
-        <v>1.441896551724138</v>
+        <v>1.466311090415359</v>
       </c>
       <c r="O32">
-        <v>1.530185185185185</v>
+        <v>1.558048815385048</v>
       </c>
       <c r="P32">
         <v>0.003503901459509723</v>
@@ -2114,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J33">
         <v>8000</v>
